--- a/biology/Biologie cellulaire et moléculaire/Microtubule/Microtubule.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Microtubule/Microtubule.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les microtubules (MT) sont des fibres constitutives du cytosquelette des cellules eucaryotes, au même titre que les microfilaments d'actine et les filaments intermédiaires. Ils sont moins importants, pondéralement, chez les métaphytes (plantes) que chez les métazoaire (animaux).
 Les microtubules ont un diamètre d'environ 25 nm et une longueur variable du fait d'un déséquilibre récurrent entre la polymérisation lente côté + et la dépolymérisation brutale se faisant du même côté. Les microtubules sont ancrés sur le centrosome et le matériel péricentriolaire, et irradient dans tout le cytoplasme.
@@ -513,7 +525,9 @@
           <t>Structure</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les microtubules sont formés de dimères de tubulines constitués chacun de deux sous-unités, la tubuline α et la tubuline β, liées par des liaisons non covalentes. Les dimères sont assemblés en protofilaments qui constituent la paroi des microtubules dont l'intérieur semble "vide" sur les clichés de microscopie électronique.
 Comme les dimères de tubuline sont polarisés et qu'ils sont orientés de façon également polarisée le long de chaque protofilament, une extrémité des microtubules ne présente que des tubulines β, tandis que l'autre ne présente que des tubulines α. Ces deux extrémités sont respectivement nommées (+) et (−).
@@ -546,7 +560,9 @@
           <t>Polymérisation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il y a trois phases dans la polymérisation des dimères de tubuline qui mène à la mise en place du microtubule :
 la phase de nucléation consiste en l'assemblage des hétérodimères α et β de tubuline concomitant à l'hydrolyse de la GTP (guanosine triphosphate) catalysée par la sous-unité β. Ce germe constitue la base sur laquelle le microtubule croît ;
@@ -581,145 +597,502 @@
           <t>Protéines associées</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Il existe des protéines associées aux microtubules (MAP, pour l'anglais microtubule associated protein), qui se lient aux microtubules et leur confèrent une fonction.
-Protéines de séquestration
-Dans les microtubules on associe aux monomères d'actine G liée au GTP (vide supra). On associe aux dimères de tubuline libres, des protéines de séquestration appelées stathmines.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il existe des protéines associées aux microtubules (MAP, pour l'anglais microtubule associated protein), qui se lient aux microtubules et leur confèrent une fonction.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Microtubule</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Biologie cellulaire et moléculaire/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Microtubule</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Protéines associées</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Protéines de séquestration</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans les microtubules on associe aux monomères d'actine G liée au GTP (vide supra). On associe aux dimères de tubuline libres, des protéines de séquestration appelées stathmines.
 Elles ont une double fonction :
 principalement elles fixent les dimères de tubuline en forme G libre pour en empêcher la polymérisation ;
 mais elles sont impliquées aussi dans la présentation optimale des dimères libres à l’extrémité + des microtubules (stimulation de la polymérisation).
 Ces protéines maintiennent une concentration faible des formes G libres (équilibre).
 Ces protéines favorisent la dépolymérisation.
-Protéines de fragmentation
-Les protéines impliquées dans la fragmentation des microtubules sont : 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Microtubule</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Biologie cellulaire et moléculaire/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Microtubule</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Protéines associées</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Protéines de fragmentation</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Les protéines impliquées dans la fragmentation des microtubules sont : 
 La katanine : notamment à la fin de la mitose, au moment de la cytodiérèse, rompt les microtubules en petits fragments qui se dépolymérisent en dimères. Ceux-ci peuvent se réassembler.
 MCAK : supprime les dimères des extrémités et entrainent un raccourcissement du microtubule.
-MIDD1 :   MIDD1 est une protéine associée aux microtubules (MAP pour microtubule associated protein) appartenant à la famille RIP/MIDD. Cette famille est composée d’effecteurs de protéines Rho GTPase des Plantes (Rho family of GTPases Of Plants, ROP en anglais). Le MIDD1 s’accumule directement proche des microtubules dans les cellules, et in vitro, il s’y lie directement. Pendant la différentiation des cellules du xylème, MIDD1 interagit également avec kinesin-13A et induit une régulation négative des microtubules grâce au signal d’une ROP. Cela veut dire que le MIDD1 recrute la kinesin-13A pour engendrer une dépolymérisation des microtubules dans les régions où la ROP est active[1].
-Protéines stabilisatrices
-Parmi les protéines stabilisatrices (ou MAP de stabilisation), on trouve :
+MIDD1 :   MIDD1 est une protéine associée aux microtubules (MAP pour microtubule associated protein) appartenant à la famille RIP/MIDD. Cette famille est composée d’effecteurs de protéines Rho GTPase des Plantes (Rho family of GTPases Of Plants, ROP en anglais). Le MIDD1 s’accumule directement proche des microtubules dans les cellules, et in vitro, il s’y lie directement. Pendant la différentiation des cellules du xylème, MIDD1 interagit également avec kinesin-13A et induit une régulation négative des microtubules grâce au signal d’une ROP. Cela veut dire que le MIDD1 recrute la kinesin-13A pour engendrer une dépolymérisation des microtubules dans les régions où la ROP est active.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Microtubule</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Biologie cellulaire et moléculaire/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Microtubule</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Protéines associées</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Protéines stabilisatrices</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Parmi les protéines stabilisatrices (ou MAP de stabilisation), on trouve :
 Tau : elle assure le même rôle que MAP2 mais cette fois ci principalement dans les axones des cellules nerveuses. Lors du dysfonctionnement de cette protéine, on parle de tauopathie, étant l'une des causes (ou conséquences ?) des maladies neurodégénératives comme la maladie d'Alzheimer par exemple.
 Dans la maladie d'Alzheimer, la protéine Tau est abondante et anormalement phosphorylée dans les neurones. Ce qui entraine une anomalie dans l'organisation des microtubules qui génère des amas neurofibrillaires avec filaments introduisant une dégénérescence neuronale.
-Protéines motrices
-Les moteurs moléculaires sont des ATPases :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Microtubule</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Biologie cellulaire et moléculaire/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Microtubule</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Protéines associées</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Protéines motrices</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Les moteurs moléculaires sont des ATPases :
 Les kinésines, moteurs moléculaires liés à des éléments figurés qui se déplacent vers l'extrémité positive (+) des microtubules; on parle de transport antérograde.
 Les dynéines, moteurs moléculaires liés à des éléments figurés qui se déplacent vers l'extrémité négative (-) des microtubules; on parle de transport rétrograde.</t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Microtubule</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Biologie cellulaire et moléculaire/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Microtubule</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Microtubule</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Biologie cellulaire et moléculaire/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Microtubule</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>Rôles</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Division cellulaire (mitose)
-Les microtubules jouent un rôle très important dans la division cellulaire (mitose) et dans les courants cytoplasmiques grâce à la coopération avec les microfilaments d'actine (déplacement des chromosomes). Ils apparaissent en phase G2 de l'interphase :
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Division cellulaire (mitose)</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Les microtubules jouent un rôle très important dans la division cellulaire (mitose) et dans les courants cytoplasmiques grâce à la coopération avec les microfilaments d'actine (déplacement des chromosomes). Ils apparaissent en phase G2 de l'interphase :
 les microtubules polaires permettent aux deux centrosomes de s'éloigner l'un de l'autre ;
 les microtubules radiaires (également appelés microtubules astériens) ancrent les centrosomes aux membranes plasmiques ;
-les microtubules kinétochoriens relient les centrosomes aux kinétochores (situés au niveau du centromère des chromosomes).
-Transport cytoplasmique
-Les déplacements cellulaires polarisés se produisent le long des microtubules et des microfilaments d'actine grâce à l'action de moteurs moléculaires spécifiques. Les microtubules sont très nombreux dans les neurones (dendrites, axones). Ils permettent d'acheminer divers composants soit vers les extrémités de ces prolongements cellulaires, soit vers le corps cellulaire lui-même. On peut les comparer à des rails le long desquels des vésicules sont transportées. La formation des vésicules synaptiques s'intègre dans ce processus très dynamique.
+les microtubules kinétochoriens relient les centrosomes aux kinétochores (situés au niveau du centromère des chromosomes).</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Microtubule</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Biologie cellulaire et moléculaire/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Microtubule</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Rôles</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Transport cytoplasmique</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Les déplacements cellulaires polarisés se produisent le long des microtubules et des microfilaments d'actine grâce à l'action de moteurs moléculaires spécifiques. Les microtubules sont très nombreux dans les neurones (dendrites, axones). Ils permettent d'acheminer divers composants soit vers les extrémités de ces prolongements cellulaires, soit vers le corps cellulaire lui-même. On peut les comparer à des rails le long desquels des vésicules sont transportées. La formation des vésicules synaptiques s'intègre dans ce processus très dynamique.
 Le transport est possible grâce aux protéines associées (MAP, pour l'anglais microtubule-associated protein) :
 moteurs moléculaires, notamment :
 la kinésine, vers l'extrémité (+),
 la dynéine, vers l'extrémité (−) ;
 MAP d'assemblage (protéine tau, MAP-2 dans les neurones et MAP-4 dans les autres types cellulaires) ;
-MAP de stabilisation (STOP).
-Forme et mobilité cellulaire
-Les microtubules maintiennent la forme tridimensionnelle des cellules eucaryotes. Ils composent aussi l'axonème, l'axe moteur axial des cils et des flagelles de ces cellules (protistes et spermatozoïdes, notamment). 
-Mouvement intracellulaire
-Les microtubules sont impliqués dans le transport de vésicules d'endocytose et d'exocytose, ainsi que dans la diapédèse qui dépend également des filaments d'actine.
-Détection de la pression
-Les microtubules jouent le rôle de capteurs de pression : quand une cellule est soumise à une contrainte, les protéines CLASP2 qui œuvrent aux extrémités des microtubules se déplacent dans les zones déformées, stabilisant les microtubules (arrêt de la dépolymérisation)[2],[3].
-Initiation et contrôle des motifs de la paroi cellulaire chez les plantes
-Chez les plantes, la polarisation de la membrane plasmique entraine la formation de l’architecture de la paroi secondaire, et engendre différente forme de cellules, avec des fonctions particulières. La protéine MIDD1 (voir plus haut) est ancrée dans la membrane plasmique et promeut la dépolymérisation des microtubules de façon très localisée afin de former le motif de la seconde paroi cellulaire.
-Certaines ROP (Rho GTPases of Plant), ROPGEF4 et ROPGAP3 au moins, participent à l’initiation du motif en activant la ROP11. Cette protéine ainsi activée recrute MIDD1 pour induire une dépolymérisation locale des microtubules corticaux. À l’inverse, les microtubules corticaux éliminent de la membrane plasmique la ROP11 activée grâce au MIDD1. C’est grâce à cette interaction mutuellement inhibitrice entre les domaines de ROP actifs et les microtubules corticaux que le motif de la seconde paroi cellulaire peut s’établir[4].
+MAP de stabilisation (STOP).</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Microtubule</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Biologie cellulaire et moléculaire/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Microtubule</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Rôles</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Forme et mobilité cellulaire</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les microtubules maintiennent la forme tridimensionnelle des cellules eucaryotes. Ils composent aussi l'axonème, l'axe moteur axial des cils et des flagelles de ces cellules (protistes et spermatozoïdes, notamment). 
 </t>
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Microtubule</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Biologie cellulaire et moléculaire/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Microtubule</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Microtubule</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Biologie cellulaire et moléculaire/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Microtubule</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Rôles</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Mouvement intracellulaire</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les microtubules sont impliqués dans le transport de vésicules d'endocytose et d'exocytose, ainsi que dans la diapédèse qui dépend également des filaments d'actine.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Microtubule</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Biologie cellulaire et moléculaire/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Microtubule</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Rôles</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Détection de la pression</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les microtubules jouent le rôle de capteurs de pression : quand une cellule est soumise à une contrainte, les protéines CLASP2 qui œuvrent aux extrémités des microtubules se déplacent dans les zones déformées, stabilisant les microtubules (arrêt de la dépolymérisation),.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Microtubule</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Biologie cellulaire et moléculaire/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Microtubule</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Rôles</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Initiation et contrôle des motifs de la paroi cellulaire chez les plantes</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chez les plantes, la polarisation de la membrane plasmique entraine la formation de l’architecture de la paroi secondaire, et engendre différente forme de cellules, avec des fonctions particulières. La protéine MIDD1 (voir plus haut) est ancrée dans la membrane plasmique et promeut la dépolymérisation des microtubules de façon très localisée afin de former le motif de la seconde paroi cellulaire.
+Certaines ROP (Rho GTPases of Plant), ROPGEF4 et ROPGAP3 au moins, participent à l’initiation du motif en activant la ROP11. Cette protéine ainsi activée recrute MIDD1 pour induire une dépolymérisation locale des microtubules corticaux. À l’inverse, les microtubules corticaux éliminent de la membrane plasmique la ROP11 activée grâce au MIDD1. C’est grâce à cette interaction mutuellement inhibitrice entre les domaines de ROP actifs et les microtubules corticaux que le motif de la seconde paroi cellulaire peut s’établir.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Microtubule</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Biologie cellulaire et moléculaire/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Microtubule</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
         <is>
           <t>Régulation</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La biogenèse des microtubules : les MT polymérisent à partir de centres organisateurs (MTOC) :
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>La biogenèse des microtubules : les MT polymérisent à partir de centres organisateurs (MTOC) :
 les centrosomes (division cellulaire) ;
 le corpuscule basal ou cinétosome (cils et flagelles) ;
-la matière péricentriolaire amorphe (cellules animales) ou masse amorphe (cellules végétales), pour la polymérisation des autres MT.
-Molécules agissant sur les microtubules
-Il existe des inhibiteurs de la polymérisation comme la colchicine (par réaction réversible), la vinblastine, la vincristine et le nocodazole. Ceux-ci modifient l'équilibre de la réaction de polymérisation et favorisent ainsi la dépolymérisation. Ces inhibiteurs sont utilisés in vitro pour détruire le fuseau mitotique des cellules en mitose pour établir un caryotype, mais également en clinique pour lutter contre les cellules cancéreuses. Il existe aussi des inhibiteurs de dépolymérisation comme le Taxol, qui vient stabiliser les microtubules.
+la matière péricentriolaire amorphe (cellules animales) ou masse amorphe (cellules végétales), pour la polymérisation des autres MT.</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Microtubule</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Biologie cellulaire et moléculaire/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Microtubule</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Régulation</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Molécules agissant sur les microtubules</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il existe des inhibiteurs de la polymérisation comme la colchicine (par réaction réversible), la vinblastine, la vincristine et le nocodazole. Ceux-ci modifient l'équilibre de la réaction de polymérisation et favorisent ainsi la dépolymérisation. Ces inhibiteurs sont utilisés in vitro pour détruire le fuseau mitotique des cellules en mitose pour établir un caryotype, mais également en clinique pour lutter contre les cellules cancéreuses. Il existe aussi des inhibiteurs de dépolymérisation comme le Taxol, qui vient stabiliser les microtubules.
 </t>
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Microtubule</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Biologie cellulaire et moléculaire/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Microtubule</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Microtubule</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Portail:Biologie cellulaire et moléculaire/Articles liés</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Microtubule</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
         <is>
           <t>Pathologies liées aux anomalies biochimiques des microtubules et de MAPs</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
         <is>
           <t xml:space="preserve">Il existe de nombreuses pathologies liées aux microtubules et aux protéines auxquelles ils sont associées. Les tubulines peuvent être altérées et conduire à des modifications de leur polymérisation et des liaisons que les microtubules contractent avec les protéines qui leur sont associées. Le syndrome de Kartagener est sémiologiquement défini comme une dyskinésie ciliaire primitive (DCP) qui est due à une altération de l'expression des gènes qui spécifient les dynéines, les kynésines et autres MAPs (microtubule associated proteins). Ces altérations biochimiques impliquent une diminution essentielle de la motilité ciliaire (et/ou flagellaire) qui aura une influence sur le système respiratoire (ciliature bronchique), l'appareil reproducteur masculin (spermatozoïdes) et féminin (altération de la ciliature des trompes de Fallope, grossesse extra-utérine) et pourra conduire à une malformation anatomique majeure, le situs inversus, vraisemblablement liée à une altération du (des) cil(s) primaire(s) essentiel(s) aux mouvements cellulaires embryonnaires précoces (symétrisation).
 Des pathologies des microtubules interviennent aussi dans la maladie d'Alzheimer et dans la paralysie supranucléaire progressive.
